--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H2">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I2">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J2">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N2">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O2">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P2">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q2">
-        <v>36.76633609694355</v>
+        <v>24.91066145438067</v>
       </c>
       <c r="R2">
-        <v>330.897024872492</v>
+        <v>224.195953089426</v>
       </c>
       <c r="S2">
-        <v>0.003760886512583502</v>
+        <v>0.002881615050742066</v>
       </c>
       <c r="T2">
-        <v>0.003818978470851379</v>
+        <v>0.002953653328973982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H3">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I3">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J3">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>491.042579</v>
       </c>
       <c r="O3">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P3">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q3">
-        <v>7100.128088754354</v>
+        <v>5326.843318822493</v>
       </c>
       <c r="R3">
-        <v>63901.15279878919</v>
+        <v>47941.58986940244</v>
       </c>
       <c r="S3">
-        <v>0.7262833015561586</v>
+        <v>0.6161984862816381</v>
       </c>
       <c r="T3">
-        <v>0.73750172548453</v>
+        <v>0.6316029997989486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H4">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I4">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J4">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N4">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O4">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P4">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q4">
-        <v>2.242737421478111</v>
+        <v>5.058793130435332</v>
       </c>
       <c r="R4">
-        <v>20.184636793303</v>
+        <v>45.529138173918</v>
       </c>
       <c r="S4">
-        <v>0.0002294131484155289</v>
+        <v>0.0005851909813775538</v>
       </c>
       <c r="T4">
-        <v>0.000232956743522498</v>
+        <v>0.0005998203298481028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H5">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I5">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J5">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N5">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O5">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P5">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q5">
-        <v>61.87103621689432</v>
+        <v>12.46291892231</v>
       </c>
       <c r="R5">
-        <v>371.2262173013659</v>
+        <v>74.77751353386</v>
       </c>
       <c r="S5">
-        <v>0.006328885886647464</v>
+        <v>0.001441685312470538</v>
       </c>
       <c r="T5">
-        <v>0.004284429369637915</v>
+        <v>0.0009851509304165918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H6">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I6">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J6">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N6">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O6">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P6">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q6">
-        <v>2.857474225582</v>
+        <v>4.174505334331333</v>
       </c>
       <c r="R6">
-        <v>25.717268030238</v>
+        <v>37.570548008982</v>
       </c>
       <c r="S6">
-        <v>0.0002922955457598538</v>
+        <v>0.00048289835349582</v>
       </c>
       <c r="T6">
-        <v>0.0002968104441991857</v>
+        <v>0.0004949704607461993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.732741</v>
       </c>
       <c r="I7">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J7">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N7">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O7">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P7">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q7">
-        <v>0.2070195235853333</v>
+        <v>0.1869573192523334</v>
       </c>
       <c r="R7">
-        <v>1.863175712268</v>
+        <v>1.682615873271</v>
       </c>
       <c r="S7">
-        <v>2.117635360892724E-05</v>
+        <v>2.162684543686307E-05</v>
       </c>
       <c r="T7">
-        <v>2.150345091590514E-05</v>
+        <v>2.216750082678344E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.732741</v>
       </c>
       <c r="I8">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J8">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>491.042579</v>
       </c>
       <c r="O8">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P8">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q8">
         <v>39.97855893100434</v>
@@ -948,10 +948,10 @@
         <v>359.807030379039</v>
       </c>
       <c r="S8">
-        <v>0.004089469853065891</v>
+        <v>0.004624639025885912</v>
       </c>
       <c r="T8">
-        <v>0.004152637223643859</v>
+        <v>0.004740251634441365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.732741</v>
       </c>
       <c r="I9">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J9">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N9">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O9">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P9">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q9">
-        <v>0.01262813980966667</v>
+        <v>0.03796681208366666</v>
       </c>
       <c r="R9">
-        <v>0.113653258287</v>
+        <v>0.341701308753</v>
       </c>
       <c r="S9">
-        <v>1.291752340074548E-06</v>
+        <v>4.391924210015308E-06</v>
       </c>
       <c r="T9">
-        <v>1.311705195014724E-06</v>
+        <v>4.50171911760822E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.732741</v>
       </c>
       <c r="I10">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J10">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N10">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O10">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P10">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q10">
-        <v>0.3483760907689999</v>
+        <v>0.09353560988500001</v>
       </c>
       <c r="R10">
-        <v>2.090256544614</v>
+        <v>0.56121365931</v>
       </c>
       <c r="S10">
-        <v>3.563593983433713E-05</v>
+        <v>1.082001060945556E-05</v>
       </c>
       <c r="T10">
-        <v>2.41242566188472E-05</v>
+        <v>7.39366866459657E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>0.732741</v>
       </c>
       <c r="I11">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J11">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N11">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O11">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P11">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q11">
-        <v>0.016089526878</v>
+        <v>0.03133013259966667</v>
       </c>
       <c r="R11">
-        <v>0.144805741902</v>
+        <v>0.281971193397</v>
       </c>
       <c r="S11">
-        <v>1.645823083098844E-06</v>
+        <v>3.624206519215799E-06</v>
       </c>
       <c r="T11">
-        <v>1.671245037614033E-06</v>
+        <v>3.714809043496048E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H12">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I12">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J12">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N12">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O12">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P12">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q12">
-        <v>6.482849319549778</v>
+        <v>5.067139606839778</v>
       </c>
       <c r="R12">
-        <v>58.345643875948</v>
+        <v>45.60425646155801</v>
       </c>
       <c r="S12">
-        <v>0.000663140882592126</v>
+        <v>0.0005861564849259748</v>
       </c>
       <c r="T12">
-        <v>0.0006733839868039577</v>
+        <v>0.0006008099702822735</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H13">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I13">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J13">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>491.042579</v>
       </c>
       <c r="O13">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P13">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q13">
-        <v>1251.934933835409</v>
+        <v>1083.546448963869</v>
       </c>
       <c r="R13">
-        <v>11267.41440451868</v>
+        <v>9751.918040674824</v>
       </c>
       <c r="S13">
-        <v>0.1280623991163788</v>
+        <v>0.1253424667679116</v>
       </c>
       <c r="T13">
-        <v>0.1300404953764657</v>
+        <v>0.128475937178186</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H14">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I14">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J14">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N14">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O14">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P14">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q14">
-        <v>0.3954522073785555</v>
+        <v>1.029021693421555</v>
       </c>
       <c r="R14">
-        <v>3.559069866407</v>
+        <v>9.261195240794001</v>
       </c>
       <c r="S14">
-        <v>4.045143005764507E-05</v>
+        <v>0.0001190351530702606</v>
       </c>
       <c r="T14">
-        <v>4.107625688475676E-05</v>
+        <v>0.0001220109452303015</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H15">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I15">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J15">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N15">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O15">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P15">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q15">
-        <v>10.90945271187567</v>
+        <v>2.535113337063334</v>
       </c>
       <c r="R15">
-        <v>65.456716271254</v>
+        <v>15.21068002238</v>
       </c>
       <c r="S15">
-        <v>0.001115945125877569</v>
+        <v>0.0002932567953202217</v>
       </c>
       <c r="T15">
-        <v>0.0007554549343829028</v>
+        <v>0.0002003920011265345</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H16">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I16">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J16">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N16">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O16">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P16">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q16">
-        <v>0.503846094158</v>
+        <v>0.849146513322889</v>
       </c>
       <c r="R16">
-        <v>4.534614847422</v>
+        <v>7.642318619906001</v>
       </c>
       <c r="S16">
-        <v>5.15392117109604E-05</v>
+        <v>9.822755519990753E-05</v>
       </c>
       <c r="T16">
-        <v>5.233530426144145E-05</v>
+        <v>0.0001006831725627157</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H17">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I17">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J17">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N17">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O17">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P17">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q17">
-        <v>1.853643797598667</v>
+        <v>2.841533560456667</v>
       </c>
       <c r="R17">
-        <v>11.121862785592</v>
+        <v>17.04920136274</v>
       </c>
       <c r="S17">
-        <v>0.0001896121478936931</v>
+        <v>0.0003287028684483481</v>
       </c>
       <c r="T17">
-        <v>0.0001283606419559257</v>
+        <v>0.000224613467225782</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H18">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I18">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J18">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>491.042579</v>
       </c>
       <c r="O18">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P18">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q18">
-        <v>357.9662754312277</v>
+        <v>607.6275449147768</v>
       </c>
       <c r="R18">
-        <v>2147.797652587366</v>
+        <v>3645.765269488661</v>
       </c>
       <c r="S18">
-        <v>0.03661693495047424</v>
+        <v>0.070289128286634</v>
       </c>
       <c r="T18">
-        <v>0.02478835522361374</v>
+        <v>0.04803087021195114</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H19">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I19">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J19">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N19">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O19">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P19">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q19">
-        <v>0.1130718138463333</v>
+        <v>0.5770513353033333</v>
       </c>
       <c r="R19">
-        <v>0.6784308830779999</v>
+        <v>3.46230801182</v>
       </c>
       <c r="S19">
-        <v>1.156629419169617E-05</v>
+        <v>6.67521340573826E-05</v>
       </c>
       <c r="T19">
-        <v>7.829967457198972E-06</v>
+        <v>4.561392587209797E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H20">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I20">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J20">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N20">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O20">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P20">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q20">
-        <v>3.119344343478999</v>
+        <v>1.42163235785</v>
       </c>
       <c r="R20">
-        <v>12.477377373916</v>
+        <v>5.686529431400001</v>
       </c>
       <c r="S20">
-        <v>0.000319082653179278</v>
+        <v>0.0001644515624968314</v>
       </c>
       <c r="T20">
-        <v>0.0001440050287005001</v>
+        <v>7.491676970040413E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H21">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I21">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J21">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N21">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O21">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P21">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q21">
-        <v>0.144064922898</v>
+        <v>0.4761815348633334</v>
       </c>
       <c r="R21">
-        <v>0.8643895373879998</v>
+        <v>2.85708920918</v>
       </c>
       <c r="S21">
-        <v>1.473662820344266E-05</v>
+        <v>5.508371908391602E-05</v>
       </c>
       <c r="T21">
-        <v>9.976170184624647E-06</v>
+        <v>3.764051463722946E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H22">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I22">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J22">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8475826666666667</v>
+        <v>0.7654436666666667</v>
       </c>
       <c r="N22">
-        <v>2.542748</v>
+        <v>2.296331</v>
       </c>
       <c r="O22">
-        <v>0.00510369540012338</v>
+        <v>0.004635878353392074</v>
       </c>
       <c r="P22">
-        <v>0.005118348529504506</v>
+        <v>0.004639465203339198</v>
       </c>
       <c r="Q22">
-        <v>4.583754749033778</v>
+        <v>7.06942746347289</v>
       </c>
       <c r="R22">
-        <v>41.253792741304</v>
+        <v>63.624847171256</v>
       </c>
       <c r="S22">
-        <v>0.0004688795034451316</v>
+        <v>0.0008177771038388215</v>
       </c>
       <c r="T22">
-        <v>0.0004761219789773395</v>
+        <v>0.0008382209360303768</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H23">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I23">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J23">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>491.042579</v>
       </c>
       <c r="O23">
-        <v>0.9855997337160513</v>
+        <v>0.9913264518834251</v>
       </c>
       <c r="P23">
-        <v>0.9884294716380667</v>
+        <v>0.9920934563128917</v>
       </c>
       <c r="Q23">
-        <v>885.1914359854159</v>
+        <v>1511.711462205212</v>
       </c>
       <c r="R23">
-        <v>7966.722923868741</v>
+        <v>13605.4031598469</v>
       </c>
       <c r="S23">
-        <v>0.09054762823997378</v>
+        <v>0.1748717315213555</v>
       </c>
       <c r="T23">
-        <v>0.09194625832981351</v>
+        <v>0.1792433974893646</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H24">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I24">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J24">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.05170233333333333</v>
+        <v>0.1554443333333333</v>
       </c>
       <c r="N24">
-        <v>0.155107</v>
+        <v>0.466333</v>
       </c>
       <c r="O24">
-        <v>0.0003113241589126949</v>
+        <v>0.0009414422660201798</v>
       </c>
       <c r="P24">
-        <v>0.0003122179961859592</v>
+        <v>0.000942170674292503</v>
       </c>
       <c r="Q24">
-        <v>0.2796079076095555</v>
+        <v>1.435641167289778</v>
       </c>
       <c r="R24">
-        <v>2.516471168485999</v>
+        <v>12.920770505608</v>
       </c>
       <c r="S24">
-        <v>2.860153390775021E-05</v>
+        <v>0.0001660720733049674</v>
       </c>
       <c r="T24">
-        <v>2.904332312649079E-05</v>
+        <v>0.0001702237542243926</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H25">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I25">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J25">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.426327</v>
+        <v>0.382955</v>
       </c>
       <c r="N25">
-        <v>2.852654</v>
+        <v>0.7659100000000001</v>
       </c>
       <c r="O25">
-        <v>0.008588588270216057</v>
+        <v>0.002319351341104477</v>
       </c>
       <c r="P25">
-        <v>0.005742164542489129</v>
+        <v>0.001547430572460819</v>
       </c>
       <c r="Q25">
-        <v>7.713623009348666</v>
+        <v>3.536867195026667</v>
       </c>
       <c r="R25">
-        <v>46.28173805609199</v>
+        <v>21.22120317016</v>
       </c>
       <c r="S25">
-        <v>0.0007890386646774091</v>
+        <v>0.0004091376602074299</v>
       </c>
       <c r="T25">
-        <v>0.0005341509531489646</v>
+        <v>0.0002795772025526921</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H26">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I26">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J26">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.065874</v>
+        <v>0.1282723333333333</v>
       </c>
       <c r="N26">
-        <v>0.197622</v>
+        <v>0.384817</v>
       </c>
       <c r="O26">
-        <v>0.0003966584546967229</v>
+        <v>0.0007768761560581979</v>
       </c>
       <c r="P26">
-        <v>0.0003977972937537418</v>
+        <v>0.0007774772370156479</v>
       </c>
       <c r="Q26">
-        <v>0.356248743884</v>
+        <v>1.184688038532445</v>
       </c>
       <c r="R26">
-        <v>3.206238694955999</v>
+        <v>10.662192346792</v>
       </c>
       <c r="S26">
-        <v>3.64412459393671E-05</v>
+        <v>0.0001370423217593386</v>
       </c>
       <c r="T26">
-        <v>3.7004130070876E-05</v>
+        <v>0.0001404682800260073</v>
       </c>
     </row>
   </sheetData>
